--- a/spliced/walkingToRunning/2023-03-24_10-06-27/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-06-27/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>31.39303779602051</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25.90989303588867</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.824093818664551</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-40.16428375244141</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-36.62774276733398</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-9.502298355102541</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-32.28135681152344</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-5.977139472961426</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-25.55127906799316</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.151648998260498</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.294158458709717</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.39510154724121</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-7.373503684997559</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>48.08645629882812</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-14.49578666687012</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15.91215991973877</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-71.25363159179688</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-23.40527725219727</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-48.95271301269531</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.450338363647461</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.339826583862305</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-12.33499145507812</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4.199068546295166</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-20.79486465454102</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-6.71635627746582</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>16.30048179626465</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.202856779098511</v>
+      </c>
+      <c r="C30" t="n">
+        <v>33.71396636962891</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>16.76902770996094</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16.37147903442383</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.113217353820801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
